--- a/Scripts/Data/Holy_Dead_Feedback_Form_Post_Production.xlsx
+++ b/Scripts/Data/Holy_Dead_Feedback_Form_Post_Production.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentdkit-my.sharepoint.com/personal/d00248313_student_dkit_ie/Documents/Documents/HolyDead_Surveys_Analysis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentdkit-my.sharepoint.com/personal/d00248313_student_dkit_ie/Documents/Documents/HolyDead_Surveys_Analysis/Scripts/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{572D967F-B6A9-42E1-A619-97F57A5A5C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F649DB8F-D932-414C-9C6F-3F9D9AC14B0E}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{572D967F-B6A9-42E1-A619-97F57A5A5C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56AD2F2E-507E-4D7A-9340-1C333CD3EFD2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7380" yWindow="1476" windowWidth="15660" windowHeight="10764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>What is our age group</t>
-  </si>
-  <si>
     <t>How long did you play the game</t>
   </si>
   <si>
@@ -210,6 +207,9 @@
   </si>
   <si>
     <t xml:space="preserve">yes in the settings screen in game. </t>
+  </si>
+  <si>
+    <t>What is your age group</t>
   </si>
 </sst>
 </file>
@@ -338,6 +338,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:Z10" totalsRowShown="0">
   <autoFilter ref="A1:Z10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -377,7 +381,7 @@
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="What is our age group" dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="What is your age group" dataDxfId="20">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r16c5885bee314eb3b12d63a9434ab772"/>
@@ -860,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,67 +893,67 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -963,67 +967,67 @@
         <v>45758.490104166667</v>
       </c>
       <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2">
         <v>4</v>
       </c>
       <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
       <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" t="s">
         <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -1037,67 +1041,67 @@
         <v>45758.503831018519</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
         <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3">
         <v>4</v>
       </c>
       <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>39</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" t="s">
         <v>40</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -1111,64 +1115,64 @@
         <v>45758.50949074074</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4">
         <v>5</v>
       </c>
       <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -1182,64 +1186,64 @@
         <v>45758.514085648145</v>
       </c>
       <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5">
         <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
         <v>43</v>
       </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>44</v>
-      </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -1253,67 +1257,67 @@
         <v>45758.519548611112</v>
       </c>
       <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
         <v>46</v>
       </c>
-      <c r="L6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>47</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" t="s">
         <v>48</v>
-      </c>
-      <c r="P6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" t="s">
-        <v>29</v>
-      </c>
-      <c r="U6" t="s">
-        <v>29</v>
-      </c>
-      <c r="V6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W6" t="s">
-        <v>29</v>
-      </c>
-      <c r="X6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
@@ -1327,67 +1331,67 @@
         <v>45758.526365740741</v>
       </c>
       <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
         <v>29</v>
       </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" t="s">
         <v>50</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z7" t="s">
         <v>51</v>
-      </c>
-      <c r="P7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7" t="s">
-        <v>29</v>
-      </c>
-      <c r="U7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -1401,64 +1405,64 @@
         <v>45758.531550925924</v>
       </c>
       <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
         <v>29</v>
       </c>
-      <c r="L8" t="s">
-        <v>30</v>
-      </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
@@ -1472,64 +1476,64 @@
         <v>45758.53837962963</v>
       </c>
       <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z9" t="s">
         <v>54</v>
-      </c>
-      <c r="P9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" t="s">
-        <v>29</v>
-      </c>
-      <c r="U9" t="s">
-        <v>29</v>
-      </c>
-      <c r="V9" t="s">
-        <v>29</v>
-      </c>
-      <c r="W9" t="s">
-        <v>29</v>
-      </c>
-      <c r="X9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
@@ -1543,64 +1547,64 @@
         <v>45758.544166666667</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10">
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10">
         <v>4</v>
       </c>
       <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
         <v>29</v>
       </c>
-      <c r="L10" t="s">
-        <v>30</v>
-      </c>
       <c r="M10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z10" t="s">
         <v>56</v>
-      </c>
-      <c r="P10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" t="s">
-        <v>29</v>
-      </c>
-      <c r="S10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" t="s">
-        <v>33</v>
-      </c>
-      <c r="U10" t="s">
-        <v>29</v>
-      </c>
-      <c r="V10" t="s">
-        <v>29</v>
-      </c>
-      <c r="W10" t="s">
-        <v>29</v>
-      </c>
-      <c r="X10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
